--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m2.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,42 +560,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>De acordo com a finalidade das normas de mobilização, como são denominados os documentos de planejamento elaborados pelo Ministério da Defesa (MD)?</t>
+          <t>De acordo com a Política Nacional de Defesa (PND), como é definida a "crise" no contexto do preparo e emprego?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Plano de Mobilização Marítima (P Mob Mar) e Plano de Mobilização Terrestre (P Mob Ter).</t>
+          <t>Um estado de guerra declarada que exige a mobilização total dos recursos nacionais.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Apêndice Estratégico de Mobilização Militar (AEMM) e Plano Setorial de Mobilização Militar (PSMM).</t>
+          <t>Um conflito posicionado entre a paz e a guerra que exige uma administração para permitir uma evolução favorável aos interesses nacionais.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Plano Nacional de Mobilização (PNM) e Plano de Articulação e Equipamento de Defesa (PAED).</t>
+          <t>Uma situação de normalidade onde ocorrem pequenas tensões diplomáticas sem risco de agravamento.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lista de Necessidades Finais (LNF) e Lista de Carências Final (LCF).</t>
+          <t>O emprego imediato do Poder Militar explorando a plenitude de sua violência.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Conforme o **item 1.1**, os planos do MD são denominados Apêndice Estratégico de Mobilização Militar (AEMM) e Plano Setorial de Mobilização Militar (PSMM).</t>
+          <t>Conforme o **item 2.1.4**, a crise é um conflito posicionado entre a paz e a guerra que exige administração.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,42 +614,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Qual é a meta da Mobilização Militar aplicada no campo da defesa nacional, conforme as disposições gerais?</t>
+          <t>O que caracteriza legalmente a "Situação de Não-Normalidade" descrita na doutrina de emprego das Forças Armadas?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reduzir o efetivo militar em tempos de paz para economizar recursos públicos.</t>
+          <t>A plena vigência das garantias individuais e a manutenção da ordem pública pelo Estado.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Substituir a diplomacia estatal através do uso imediato da força bruta.</t>
+          <t>A atuação de forças oponentes que não ameaçam a estabilidade institucional do país.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Aumentar o poder de permanência em ação das FA, com a finalidade de propiciar o poder dissuasório do Estado.</t>
+          <t>A intervenção da União nos Estados, ou a decretação do estado de defesa ou do estado de sítio.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Garantir a autonomia tecnológica da Base Industrial de Defesa sem depender de recursos externos.</t>
+          <t>A elaboração exclusiva do PEECFA por órgãos civis sem assessoramento militar.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.1.1**, a meta é aumentar o poder de permanência em ação das FA, com a finalidade de propiciar o poder dissuasório do Estado.</t>
+          <t>Nos termos do **item 2.2.1.2**, a situação de não-normalidade caracteriza-se pela intervenção da União, estado de defesa ou sítio.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,52 +668,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No contexto do planejamento de mobilização, como são definidas as "carências logísticas"?</t>
+          <t>Qual é a definição de "Conflito Armado" adotada no texto, diferenciando-o da guerra sob a perspectiva jurídica?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>São os recursos logísticos existentes nos estoques que excedem a necessidade operacional.</t>
+          <t>Recurso utilizado por grupos politicamente organizados que empregam a violência armada para solucionar contenciosos ou impor sua vontade.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>São recursos logísticos extraídos das necessidades logísticas, não passíveis de obtenção pelo escalão considerado e encaminhados ao escalão superior.</t>
+          <t>Situação em que o Estado declara guerra formalmente a outra nação soberana, seguindo todos os protocolos da ONU.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>São as demandas atendidas prontamente pela logística orgânica da Força Singular sem necessidade de apoio externo.</t>
+          <t>Estado de tensão diplomática sem o uso de violência física ou armamentos letais.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>São exclusivamente os recursos financeiros bloqueados pelo Ministério da Economia.</t>
+          <t>Operação de garantia da lei e da ordem em situação de normalidade institucional.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Conforme a definição do **item 2.1.15**, carências são recursos extraídos das necessidades, não passíveis de obtenção pelo escalão considerado, encaminhados ao superior.</t>
+          <t>Conforme o **item 2.2.2.2**, o conflito armado é o recurso de grupos politicamente organizados que usam violência armada para impor vontade.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,42 +722,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Como devem ser implementadas as ações planejadas na fase do Preparo durante a fase da Execução da Mobilização?</t>
+          <t>Qual é o conceito central da "Concepção de Emprego Conjunto" das Forças Armadas?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>De modo gradual e voluntário, conforme a disponibilidade orçamentária de cada Força.</t>
+          <t>A divisão estanque das responsabilidades de cada Força para evitar interferências mútuas.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>De modo acelerado e compulsório, após a decretação da Mobilização Nacional e expedição da ordem pelo MD.</t>
+          <t>A visualização de como a interoperabilidade poderá ser alcançada para aplicar a expressão Militar do Poder Nacional.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Apenas após a confirmação do início das hostilidades pelo Conselho de Segurança da ONU.</t>
+          <t>A subordinação de todas as Forças Singulares ao Ministério da Justiça em tempos de paz.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>De forma descentralizada, a critério exclusivo dos Comandantes de Organizações Militares.</t>
+          <t>O emprego isolado de cada Força Singular para garantir a especialização tática.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.2.3**, as ações serão implementadas de modo acelerado e compulsório após a decretação da Mobilização Nacional e ordem do MD.</t>
+          <t>Conforme o **item 2.3.2**, a concepção de emprego conjunto é a visualização de como a interoperabilidade poderá ser alcançada.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -776,42 +776,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Qual é o horizonte temporal considerado para a efetividade dos planejamentos de mobilização, sujeito a ajustes conforme a análise da situação?</t>
+          <t>No Nível Operacional, como é tratada a atividade de inteligência durante o planejamento da campanha?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>De até 1 (um) ano.</t>
+          <t>É centralizada exclusivamente na ABIN, sem participação das Forças Armadas.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>De até 3 (três) anos.</t>
+          <t>É intensificada pela integração dos conhecimentos do SIOP, SINDE e SISBIN para suprir necessidades do exame de situação.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De até 5 (cinco) anos.</t>
+          <t>É dispensada, uma vez que o Nível Estratégico já forneceu todos os dados necessários na DMED.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>De até 10 (dez) anos.</t>
+          <t>Foca apenas na atualização de dados administrativos das Zonas de Defesa, sem relação com o Teatro de Operações.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.2.15**, o horizonte temporal de até 3 (três) anos é o tempo considerado para a efetividade dos planejamentos.</t>
+          <t>De acordo com o **item 2.6.2**, no Nível Operacional a inteligência é intensificada pela integração do SIOP, SINDE e SISBIN.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -830,52 +830,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No contexto das bases para o planejamento da mobilização, como é definida a "interoperabilidade"?</t>
+          <t>Sobre o planejamento no Nível Tático realizado pelas Forças Componentes, é correto afirmar que:</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Capacidade de sistemas ou Forças intercambiarem serviços ou informações sem comprometer funcionalidades, otimizando recursos.</t>
+          <t>Deve aguardar a conclusão total e aprovação do plano operacional para ser iniciado.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Capacidade de uma Força Singular atuar isoladamente sem necessidade de comunicação com as demais.</t>
+          <t>É de responsabilidade exclusiva do Ministro da Defesa e não dos Comandantes das Forças.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Processo de estatização de empresas privadas para produção exclusiva de material de defesa.</t>
+          <t>Pode ocorrer de maneira paralela e simultânea ao planejamento do nível acima, dependendo da dinâmica dos fatos.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Padronização absoluta de todos os calibres e equipamentos entre as três Forças Armadas.</t>
+          <t>Não permite ajustes no plano operacional, mesmo que os exames de situação táticos indiquem necessidade.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.3.4**, entende-se por interoperabilidade a capacidade de intercambiar serviços/informações sem comprometer funcionalidades.</t>
+          <t>Conforme o **item 2.7.3**, o planejamento tático pode ocorrer de maneira paralela e simultânea ao planejamento do nível acima.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -884,52 +884,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qual lista resulta da consolidação das necessidades das fases de planejamento (LNI, LNC e LNS) realizada pelos Comandos Logísticos dos Comandos Operacionais ativados?</t>
+          <t>Dentre as competências do Ministro da Defesa (Min Def) no emprego conjunto, destaca-se:</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lista de Necessidades do Planejamento (LNP).</t>
+          <t>Decidir, em última instância, sobre a declaração de guerra sem consultar o Presidente.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lista de Necessidades do Deslocamento Estratégico (LNDE).</t>
+          <t>Adjudicar meios aos Comandos Operacionais, considerando as necessidades dos Comandantes e disponibilidades das Forças.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lista de Necessidades Final (LNF).</t>
+          <t>Assumir o comando tático das batalhas e engajamentos no terreno.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lista de Carências Final das Forças Singulares (LCFFS).</t>
+          <t>Elaborar pessoalmente os Planos Táticos das Forças Componentes.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.4.1, alínea 'd'**, a depuração e consolidação das LNI, LNC e LNS resulta na Lista de Necessidades Final (LNF).</t>
+          <t>Nos termos do **item 2.8.2, alínea 'f'**, cabe ao Min Def adjudicar meios aos Comandos Operacionais.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -938,52 +938,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O que ocorre com as carências não atendidas no âmbito do Ministério da Defesa após a consolidação dos planos?</t>
+          <t>Qual é uma das atribuições específicas do Chefe do Estado-Maior Conjunto das Forças Armadas (CEMCFA)?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>São descartadas e consideradas inatingíveis para a operação militar.</t>
+          <t>Fornecer apoio logístico direto às unidades táticas no terreno.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>São devolvidas às Forças Singulares para serem resolvidas com recursos próprios.</t>
+          <t>Coordenar o deslocamento e a concentração estratégica dos meios adjudicados pelas Forças Singulares por meio do CCLM.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>São consolidadas no Plano Setorial de Mobilização Militar (PSMM) para busca de solução pelo SINAMOB.</t>
+          <t>Decidir sobre a ativação de Comandos Operacionais sem consultar o Ministro da Defesa.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>São transformadas automaticamente em projetos de longo prazo no PAED.</t>
+          <t>Comandar diretamente as Forças Componentes no nível tático.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.1.17** e **item 2.4.1, alínea 'm', subitem 4**, as carências não atendidas no MD compõem o PSMM para busca de solução pelo SINAMOB.</t>
+          <t>Conforme o **item 2.8.5, alínea 'i'**, cabe ao CEMCFA coordenar o deslocamento e a concentração estratégica dos meios.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -992,52 +992,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Qual é a principal diferença entre o Plano de Articulação e de Equipamento de Defesa (PAED) e os Planos de Mobilização Militar quanto ao objetivo temporal e escopo?</t>
+          <t>Quem assessora a elaboração da minuta da Diretriz Presidencial de Emprego de Defesa (DPED)?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O PAED foca em curto prazo para emergências, enquanto os Planos de Mobilização visam o longo prazo.</t>
+          <t>O Gabinete de Segurança Institucional (GSI/PR), ouvido o Ministério da Defesa.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O PAED é um plano logístico estratégico (visão de futuro), enquanto os Planos de Mobilização buscam atender carências em curto prazo para situações emergenciais.</t>
+          <t>A Chefia de Logística (CHELOG) de forma isolada.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ambos os planos possuem exatamente o mesmo horizonte temporal e finalidade, sendo redundantes.</t>
+          <t>O Congresso Nacional, por meio de votação em plenário.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>O PAED trata exclusivamente de recursos humanos, enquanto a Mobilização trata de material.</t>
+          <t>Os Comandantes das Forças Componentes no nível tático.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.5.2**, o PAED é estratégico (visão de futuro) e os Planos de Mobilização buscam atender carências em curto período de tempo.</t>
+          <t>Conforme o **item 2.9.2.1**, a minuta da DPED é feita com assessoramento do GSI/PR, ouvido o MD.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1046,56 +1046,110 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Em relação à base doutrinária, qual é a distinção entre o PAED e os Planos de Mobilização?</t>
+          <t>Qual documento o Ministro da Defesa emite para determinar a confecção ou atualização do PEECFA em casos de crise?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>O PAED baseia-se no emprego das FA, enquanto a Mobilização baseia-se na Estratégia Nacional de Defesa.</t>
+          <t>Diretriz de Planejamento Estratégico Militar (DPEM).</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O PAED baseia-se na Constituição Federal, enquanto a Mobilização baseia-se apenas em portarias ministeriais.</t>
+          <t>Diretriz Ministerial de Emprego de Defesa (DMED).</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>O PAED tem como base a Estratégia Nacional de Defesa (END), enquanto os Planos de Mobilização têm como base o emprego das FA.</t>
+          <t>Diretriz Presidencial de Emprego de Defesa (DPED).</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Não há distinção, pois ambos baseiam-se exclusivamente no Livro Branco de Defesa Nacional.</t>
+          <t>Conceito Preliminar da Operação (CPO).</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.5.7, alínea 'c'**, o PAED tem como base a END, enquanto os Planos de Mobilização têm como base o emprego das FA.</t>
+          <t>Nos termos do **item 2.9.4**, cabe ao Ministro da Defesa emitir uma DMED para determinar a confecção/atualização do PEECFA.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>O que caracteriza a Diretriz de Planejamento Estratégico Militar (DPEM)?</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>É um documento político emitido pelo Presidente da República para declarar guerra.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>É um documento administrativo do CEMCFA, sem forma rígida, para orientar a elaboração do PEECFA.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>É um plano tático detalhado para o emprego de frações de combate.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>É a ordem final de engajamento para as Forças Especiais.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Conforme o **item 2.9.5.1**, a DPEM é um documento administrativo do CEMCFA, sem forma rígida, para orientar o PEECFA.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
